--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:07:50+00:00</t>
+    <t>2024-01-12T15:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T15:06:45+00:00</t>
+    <t>2024-01-15T15:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:32:20+00:00</t>
+    <t>2024-01-15T15:38:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:38:25+00:00</t>
+    <t>2024-01-15T15:51:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:51:45+00:00</t>
+    <t>2024-01-24T08:52:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1988,46 +1988,46 @@
     <t>Service is not available (seasonally or for a public holiday) from this date.</t>
   </si>
   <si>
-    <t>HealthcareService.notAvailable:closingRepoeningDate</t>
-  </si>
-  <si>
-    <t>closingRepoeningDate</t>
+    <t>HealthcareService.notAvailable:closingReopeningDate</t>
+  </si>
+  <si>
+    <t>closingReopeningDate</t>
   </si>
   <si>
     <t>Période de fermeture (during.start) et de réouverture prévisionnelle (during.end).</t>
   </si>
   <si>
-    <t>HealthcareService.notAvailable:closingRepoeningDate.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.notAvailable:closingRepoeningDate.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.notAvailable:closingRepoeningDate.modifierExtension</t>
-  </si>
-  <si>
-    <t>HealthcareService.notAvailable:closingRepoeningDate.description</t>
+    <t>HealthcareService.notAvailable:closingReopeningDate.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.notAvailable:closingReopeningDate.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.notAvailable:closingReopeningDate.modifierExtension</t>
+  </si>
+  <si>
+    <t>HealthcareService.notAvailable:closingReopeningDate.description</t>
   </si>
   <si>
     <t>Période de fermeture et de réouverture prévisionnelle</t>
   </si>
   <si>
-    <t>HealthcareService.notAvailable:closingRepoeningDate.during</t>
-  </si>
-  <si>
-    <t>HealthcareService.notAvailable:closingRepoeningDate.during.id</t>
+    <t>HealthcareService.notAvailable:closingReopeningDate.during</t>
+  </si>
+  <si>
+    <t>HealthcareService.notAvailable:closingReopeningDate.during.id</t>
   </si>
   <si>
     <t>HealthcareService.notAvailable.during.id</t>
   </si>
   <si>
-    <t>HealthcareService.notAvailable:closingRepoeningDate.during.extension</t>
+    <t>HealthcareService.notAvailable:closingReopeningDate.during.extension</t>
   </si>
   <si>
     <t>HealthcareService.notAvailable.during.extension</t>
   </si>
   <si>
-    <t>HealthcareService.notAvailable:closingRepoeningDate.during.start</t>
+    <t>HealthcareService.notAvailable:closingReopeningDate.during.start</t>
   </si>
   <si>
     <t>HealthcareService.notAvailable.during.start</t>
@@ -2056,7 +2056,7 @@
     <t>./low</t>
   </si>
   <si>
-    <t>HealthcareService.notAvailable:closingRepoeningDate.during.end</t>
+    <t>HealthcareService.notAvailable:closingReopeningDate.during.end</t>
   </si>
   <si>
     <t>HealthcareService.notAvailable.during.end</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T08:52:08+00:00</t>
+    <t>2024-01-24T16:21:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
